--- a/indicators/Wma/Wma.Calc.xlsx
+++ b/indicators/Wma/Wma.Calc.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Wma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955C0DC-1BFD-43D4-8723-341A3CB3D3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468590F-0E34-4B18-BA6F-13A351085F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="WMA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Divisor">WMA!$O$2</definedName>
-    <definedName name="Period">WMA!$O$1</definedName>
+    <definedName name="Divisor">WMA!$Q$2</definedName>
+    <definedName name="Period">WMA!$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +32,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dave Skender</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3984655E-DA3E-446F-AB19-E109D8638C6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dave Skender:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For MA Envelopes only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{55C5FA91-13AE-47C9-ACDF-A3F254CFA4C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dave Skender:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For MA Envelopes only</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="18">
   <si>
     <t>symbol</t>
   </si>
@@ -82,6 +140,12 @@
   <si>
     <t>wma</t>
   </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +159,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +293,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -623,9 +700,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="16" fillId="32" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -675,7 +754,47 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1105,32 +1224,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:M503" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:O503" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="19" totalsRowDxfId="18">
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{20D25C44-0D36-4A00-AE71-6366BD3EAA1F}" name="n" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{20D25C44-0D36-4A00-AE71-6366BD3EAA1F}" name="n" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>Period</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7B24D451-E38F-4089-A263-A42F264220EE}" name="weight" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{7B24D451-E38F-4089-A263-A42F264220EE}" name="weight" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>$A$503-testdata[[#This Row],[Index]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9E3BD770-6087-4EDC-B2E6-6D5403C6DACC}" name="pw" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{9E3BD770-6087-4EDC-B2E6-6D5403C6DACC}" name="pw" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[close]]*testdata[[#This Row],[weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{12F81CE3-E7B1-4C7F-AD5C-C4B5D50DBC60}" name="wma" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="13" xr3:uid="{12F81CE3-E7B1-4C7F-AD5C-C4B5D50DBC60}" name="wma" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{C0E65F16-2905-4A01-93CE-F57408ADC92C}" name="upper" dataDxfId="1" dataCellStyle="Currency">
+      <calculatedColumnFormula>testdata[[#This Row],[wma]]+0.025*testdata[[#This Row],[wma]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{089D0751-3362-434C-A94F-4CDBA5DCFA02}" name="lower" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>testdata[[#This Row],[wma]]-0.025*testdata[[#This Row],[wma]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1432,11 +1557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O503"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,11 +1572,12 @@
     <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
     <col min="5" max="8" width="10.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1491,14 +1617,20 @@
       <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1">
+      <c r="Q1" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1531,15 +1663,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O2">
+      <c r="Q2" s="4">
         <f>Period*(Period+1)/2</f>
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1572,8 +1706,10 @@
       <c r="K3" s="8"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1606,8 +1742,10 @@
       <c r="K4" s="8"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1640,8 +1778,10 @@
       <c r="K5" s="8"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1674,8 +1814,10 @@
       <c r="K6" s="8"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1708,8 +1850,10 @@
       <c r="K7" s="8"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1742,8 +1886,10 @@
       <c r="K8" s="8"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1776,8 +1922,10 @@
       <c r="K9" s="8"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1810,8 +1958,10 @@
       <c r="K10" s="8"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1844,8 +1994,10 @@
       <c r="K11" s="8"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1878,8 +2030,10 @@
       <c r="K12" s="8"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1912,8 +2066,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1946,8 +2102,10 @@
       <c r="K14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1980,8 +2138,10 @@
       <c r="K15" s="8"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2014,8 +2174,10 @@
       <c r="K16" s="8"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2048,8 +2210,10 @@
       <c r="K17" s="8"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2082,8 +2246,10 @@
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2116,8 +2282,10 @@
       <c r="K19" s="8"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2150,8 +2318,10 @@
       <c r="K20" s="8"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2184,8 +2354,10 @@
       <c r="K21" s="8"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2218,8 +2390,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2252,8 +2426,10 @@
       <c r="K23" s="8"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2286,8 +2462,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2320,8 +2498,10 @@
       <c r="K25" s="8"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2354,8 +2534,10 @@
       <c r="K26" s="8"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2388,8 +2570,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2422,8 +2606,10 @@
       <c r="K28" s="8"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2456,8 +2642,10 @@
       <c r="K29" s="8"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2490,8 +2678,10 @@
       <c r="K30" s="8"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2524,8 +2714,10 @@
       <c r="K31" s="8"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2558,8 +2750,10 @@
       <c r="K32" s="8"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2592,8 +2786,10 @@
       <c r="K33" s="8"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2626,8 +2822,10 @@
       <c r="K34" s="8"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2660,8 +2858,10 @@
       <c r="K35" s="8"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2694,8 +2894,10 @@
       <c r="K36" s="8"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2728,8 +2930,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2762,8 +2966,10 @@
       <c r="K38" s="8"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2796,8 +3002,10 @@
       <c r="K39" s="8"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2830,8 +3038,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2864,8 +3074,10 @@
       <c r="K41" s="8"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2898,8 +3110,10 @@
       <c r="K42" s="8"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2932,8 +3146,10 @@
       <c r="K43" s="8"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2966,8 +3182,10 @@
       <c r="K44" s="8"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3000,8 +3218,10 @@
       <c r="K45" s="8"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3034,8 +3254,10 @@
       <c r="K46" s="8"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3068,8 +3290,10 @@
       <c r="K47" s="8"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3102,8 +3326,10 @@
       <c r="K48" s="8"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3136,8 +3362,10 @@
       <c r="K49" s="8"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3170,8 +3398,10 @@
       <c r="K50" s="8"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3204,8 +3434,10 @@
       <c r="K51" s="8"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3238,8 +3470,10 @@
       <c r="K52" s="8"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3272,8 +3506,10 @@
       <c r="K53" s="8"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3306,8 +3542,10 @@
       <c r="K54" s="8"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3340,8 +3578,10 @@
       <c r="K55" s="8"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3374,8 +3614,10 @@
       <c r="K56" s="8"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3408,8 +3650,10 @@
       <c r="K57" s="8"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3442,8 +3686,10 @@
       <c r="K58" s="8"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3476,8 +3722,10 @@
       <c r="K59" s="8"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3510,8 +3758,10 @@
       <c r="K60" s="8"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3544,8 +3794,10 @@
       <c r="K61" s="8"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3578,8 +3830,10 @@
       <c r="K62" s="8"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3612,8 +3866,10 @@
       <c r="K63" s="8"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3646,8 +3902,10 @@
       <c r="K64" s="8"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3680,8 +3938,10 @@
       <c r="K65" s="8"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3714,8 +3974,10 @@
       <c r="K66" s="8"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -3748,8 +4010,10 @@
       <c r="K67" s="8"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -3782,8 +4046,10 @@
       <c r="K68" s="8"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -3816,8 +4082,10 @@
       <c r="K69" s="8"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -3850,8 +4118,10 @@
       <c r="K70" s="8"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -3884,8 +4154,10 @@
       <c r="K71" s="8"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -3918,8 +4190,10 @@
       <c r="K72" s="8"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -3952,8 +4226,10 @@
       <c r="K73" s="8"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -3986,8 +4262,10 @@
       <c r="K74" s="8"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4020,8 +4298,10 @@
       <c r="K75" s="8"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4054,8 +4334,10 @@
       <c r="K76" s="8"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4088,8 +4370,10 @@
       <c r="K77" s="8"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4122,8 +4406,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4156,8 +4442,10 @@
       <c r="K79" s="8"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4190,8 +4478,10 @@
       <c r="K80" s="8"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4224,8 +4514,10 @@
       <c r="K81" s="8"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4258,8 +4550,10 @@
       <c r="K82" s="8"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4292,8 +4586,10 @@
       <c r="K83" s="8"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4326,8 +4622,10 @@
       <c r="K84" s="8"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4360,8 +4658,10 @@
       <c r="K85" s="8"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4394,8 +4694,10 @@
       <c r="K86" s="8"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4428,8 +4730,10 @@
       <c r="K87" s="8"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -4462,8 +4766,10 @@
       <c r="K88" s="8"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4496,8 +4802,10 @@
       <c r="K89" s="8"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4530,8 +4838,10 @@
       <c r="K90" s="8"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4564,8 +4874,10 @@
       <c r="K91" s="8"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -4598,8 +4910,10 @@
       <c r="K92" s="8"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -4632,8 +4946,10 @@
       <c r="K93" s="8"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4666,8 +4982,10 @@
       <c r="K94" s="8"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4700,8 +5018,10 @@
       <c r="K95" s="8"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -4734,8 +5054,10 @@
       <c r="K96" s="8"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4768,8 +5090,10 @@
       <c r="K97" s="8"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4802,8 +5126,10 @@
       <c r="K98" s="8"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4836,8 +5162,10 @@
       <c r="K99" s="8"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -4870,8 +5198,10 @@
       <c r="K100" s="8"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4904,8 +5234,10 @@
       <c r="K101" s="8"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -4938,8 +5270,10 @@
       <c r="K102" s="8"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -4972,8 +5306,10 @@
       <c r="K103" s="8"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -5006,8 +5342,10 @@
       <c r="K104" s="8"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -5040,8 +5378,10 @@
       <c r="K105" s="8"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -5074,8 +5414,10 @@
       <c r="K106" s="8"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -5108,8 +5450,10 @@
       <c r="K107" s="8"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -5142,8 +5486,10 @@
       <c r="K108" s="8"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -5176,8 +5522,10 @@
       <c r="K109" s="8"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -5210,8 +5558,10 @@
       <c r="K110" s="8"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -5244,8 +5594,10 @@
       <c r="K111" s="8"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -5278,8 +5630,10 @@
       <c r="K112" s="8"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -5312,8 +5666,10 @@
       <c r="K113" s="8"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -5346,8 +5702,10 @@
       <c r="K114" s="8"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -5380,8 +5738,10 @@
       <c r="K115" s="8"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -5414,8 +5774,10 @@
       <c r="K116" s="8"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -5448,8 +5810,10 @@
       <c r="K117" s="8"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -5482,8 +5846,10 @@
       <c r="K118" s="8"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -5516,8 +5882,10 @@
       <c r="K119" s="8"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -5550,8 +5918,10 @@
       <c r="K120" s="8"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -5584,8 +5954,10 @@
       <c r="K121" s="8"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -5618,8 +5990,10 @@
       <c r="K122" s="8"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -5652,8 +6026,10 @@
       <c r="K123" s="8"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -5686,8 +6062,10 @@
       <c r="K124" s="8"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -5720,8 +6098,10 @@
       <c r="K125" s="8"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -5754,8 +6134,10 @@
       <c r="K126" s="8"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -5788,8 +6170,10 @@
       <c r="K127" s="8"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -5822,8 +6206,10 @@
       <c r="K128" s="8"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -5856,8 +6242,10 @@
       <c r="K129" s="8"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -5890,8 +6278,10 @@
       <c r="K130" s="8"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -5924,8 +6314,10 @@
       <c r="K131" s="8"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -5967,8 +6359,10 @@
         <v>1.0996666666666668</v>
       </c>
       <c r="M132" s="2"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -6010,8 +6404,10 @@
         <v>2.2158095238095239</v>
       </c>
       <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -6053,8 +6449,10 @@
         <v>3.3292857142857142</v>
       </c>
       <c r="M134" s="2"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -6096,8 +6494,10 @@
         <v>4.4598095238095237</v>
       </c>
       <c r="M135" s="2"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -6139,8 +6539,10 @@
         <v>5.5740476190476187</v>
       </c>
       <c r="M136" s="2"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -6182,8 +6584,10 @@
         <v>6.6925714285714291</v>
       </c>
       <c r="M137" s="2"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -6225,8 +6629,10 @@
         <v>7.85</v>
       </c>
       <c r="M138" s="2"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -6268,8 +6674,10 @@
         <v>8.9756190476190483</v>
       </c>
       <c r="M139" s="2"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -6311,8 +6719,10 @@
         <v>10.088571428571429</v>
       </c>
       <c r="M140" s="2"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -6354,8 +6764,10 @@
         <v>11.206666666666667</v>
       </c>
       <c r="M141" s="2"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -6397,8 +6809,10 @@
         <v>12.357190476190477</v>
       </c>
       <c r="M142" s="2"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -6440,8 +6854,10 @@
         <v>13.481142857142856</v>
       </c>
       <c r="M143" s="2"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -6483,8 +6899,10 @@
         <v>14.59095238095238</v>
       </c>
       <c r="M144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -6526,8 +6944,10 @@
         <v>15.695333333333334</v>
       </c>
       <c r="M145" s="2"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -6569,8 +6989,10 @@
         <v>16.806428571428569</v>
       </c>
       <c r="M146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -6612,8 +7034,10 @@
         <v>17.967238095238095</v>
       </c>
       <c r="M147" s="2"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -6655,8 +7079,10 @@
         <v>19.099095238095238</v>
       </c>
       <c r="M148" s="2"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -6698,8 +7124,10 @@
         <v>20.184000000000001</v>
       </c>
       <c r="M149" s="2"/>
-    </row>
-    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -6741,8 +7169,10 @@
         <v>21.343333333333334</v>
       </c>
       <c r="M150" s="2"/>
-    </row>
-    <row r="151" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -6783,13 +7213,21 @@
         <f>testdata[[#This Row],[close]]*testdata[[#This Row],[weight]]</f>
         <v>22.508571428571429</v>
       </c>
-      <c r="M151" s="13">
+      <c r="M151" s="12">
         <f>SUM(L132:L151)</f>
         <v>235.52533333333332</v>
       </c>
-      <c r="O151" s="12"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N151" s="12">
+        <f>testdata[[#This Row],[wma]]+0.025*testdata[[#This Row],[wma]]</f>
+        <v>241.41346666666666</v>
+      </c>
+      <c r="O151" s="12">
+        <f>testdata[[#This Row],[wma]]-0.025*testdata[[#This Row],[wma]]</f>
+        <v>229.63719999999998</v>
+      </c>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -6822,8 +7260,10 @@
       <c r="K152" s="8"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -6856,8 +7296,10 @@
       <c r="K153" s="8"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -6890,8 +7332,10 @@
       <c r="K154" s="8"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -6924,8 +7368,10 @@
       <c r="K155" s="8"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -6958,8 +7404,10 @@
       <c r="K156" s="8"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -6992,8 +7440,10 @@
       <c r="K157" s="8"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -7026,8 +7476,10 @@
       <c r="K158" s="8"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -7060,8 +7512,10 @@
       <c r="K159" s="8"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -7094,8 +7548,10 @@
       <c r="K160" s="8"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -7128,8 +7584,10 @@
       <c r="K161" s="8"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -7162,8 +7620,10 @@
       <c r="K162" s="8"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -7196,8 +7656,10 @@
       <c r="K163" s="8"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -7230,8 +7692,10 @@
       <c r="K164" s="8"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -7264,8 +7728,10 @@
       <c r="K165" s="8"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -7298,8 +7764,10 @@
       <c r="K166" s="8"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -7332,8 +7800,10 @@
       <c r="K167" s="8"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -7366,8 +7836,10 @@
       <c r="K168" s="8"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -7400,8 +7872,10 @@
       <c r="K169" s="8"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -7434,8 +7908,10 @@
       <c r="K170" s="8"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -7468,8 +7944,10 @@
       <c r="K171" s="8"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -7502,8 +7980,10 @@
       <c r="K172" s="8"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -7536,8 +8016,10 @@
       <c r="K173" s="8"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -7570,8 +8052,10 @@
       <c r="K174" s="8"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -7604,8 +8088,10 @@
       <c r="K175" s="8"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -7638,8 +8124,10 @@
       <c r="K176" s="8"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -7672,8 +8160,10 @@
       <c r="K177" s="8"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -7706,8 +8196,10 @@
       <c r="K178" s="8"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -7740,8 +8232,10 @@
       <c r="K179" s="8"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -7774,8 +8268,10 @@
       <c r="K180" s="8"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -7808,8 +8304,10 @@
       <c r="K181" s="8"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -7842,8 +8340,10 @@
       <c r="K182" s="8"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -7876,8 +8376,10 @@
       <c r="K183" s="8"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -7910,8 +8412,10 @@
       <c r="K184" s="8"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -7944,8 +8448,10 @@
       <c r="K185" s="8"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -7978,8 +8484,10 @@
       <c r="K186" s="8"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -8012,8 +8520,10 @@
       <c r="K187" s="8"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -8046,8 +8556,10 @@
       <c r="K188" s="8"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -8080,8 +8592,10 @@
       <c r="K189" s="8"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -8114,8 +8628,10 @@
       <c r="K190" s="8"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -8148,8 +8664,10 @@
       <c r="K191" s="8"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -8182,8 +8700,10 @@
       <c r="K192" s="8"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -8216,8 +8736,10 @@
       <c r="K193" s="8"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -8250,8 +8772,10 @@
       <c r="K194" s="8"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -8284,8 +8808,10 @@
       <c r="K195" s="8"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -8318,8 +8844,10 @@
       <c r="K196" s="8"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -8352,8 +8880,10 @@
       <c r="K197" s="8"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -8386,8 +8916,10 @@
       <c r="K198" s="8"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -8420,8 +8952,10 @@
       <c r="K199" s="8"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -8454,8 +8988,10 @@
       <c r="K200" s="8"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -8488,8 +9024,10 @@
       <c r="K201" s="8"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -8522,8 +9060,10 @@
       <c r="K202" s="8"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -8556,8 +9096,10 @@
       <c r="K203" s="8"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -8590,8 +9132,10 @@
       <c r="K204" s="8"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -8624,8 +9168,10 @@
       <c r="K205" s="8"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -8658,8 +9204,10 @@
       <c r="K206" s="8"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -8692,8 +9240,10 @@
       <c r="K207" s="8"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -8726,8 +9276,10 @@
       <c r="K208" s="8"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -8760,8 +9312,10 @@
       <c r="K209" s="8"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -8794,8 +9348,10 @@
       <c r="K210" s="8"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -8828,8 +9384,10 @@
       <c r="K211" s="8"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -8862,8 +9420,10 @@
       <c r="K212" s="8"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -8896,8 +9456,10 @@
       <c r="K213" s="8"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -8930,8 +9492,10 @@
       <c r="K214" s="8"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -8964,8 +9528,10 @@
       <c r="K215" s="8"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -8998,8 +9564,10 @@
       <c r="K216" s="8"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -9032,8 +9600,10 @@
       <c r="K217" s="8"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -9066,8 +9636,10 @@
       <c r="K218" s="8"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -9100,8 +9672,10 @@
       <c r="K219" s="8"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -9134,8 +9708,10 @@
       <c r="K220" s="8"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -9168,8 +9744,10 @@
       <c r="K221" s="8"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -9202,8 +9780,10 @@
       <c r="K222" s="8"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -9236,8 +9816,10 @@
       <c r="K223" s="8"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -9270,8 +9852,10 @@
       <c r="K224" s="8"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -9304,8 +9888,10 @@
       <c r="K225" s="8"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -9338,8 +9924,10 @@
       <c r="K226" s="8"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -9372,8 +9960,10 @@
       <c r="K227" s="8"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -9406,8 +9996,10 @@
       <c r="K228" s="8"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -9440,8 +10032,10 @@
       <c r="K229" s="8"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -9474,8 +10068,10 @@
       <c r="K230" s="8"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -9508,8 +10104,10 @@
       <c r="K231" s="8"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -9542,8 +10140,10 @@
       <c r="K232" s="8"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -9576,8 +10176,10 @@
       <c r="K233" s="8"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -9610,8 +10212,10 @@
       <c r="K234" s="8"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -9644,8 +10248,10 @@
       <c r="K235" s="8"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -9678,8 +10284,10 @@
       <c r="K236" s="8"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -9712,8 +10320,10 @@
       <c r="K237" s="8"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -9746,8 +10356,10 @@
       <c r="K238" s="8"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -9780,8 +10392,10 @@
       <c r="K239" s="8"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -9814,8 +10428,10 @@
       <c r="K240" s="8"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -9848,8 +10464,10 @@
       <c r="K241" s="8"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -9882,8 +10500,10 @@
       <c r="K242" s="8"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -9916,8 +10536,10 @@
       <c r="K243" s="8"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -9950,8 +10572,10 @@
       <c r="K244" s="8"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -9984,8 +10608,10 @@
       <c r="K245" s="8"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -10018,8 +10644,10 @@
       <c r="K246" s="8"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -10052,8 +10680,10 @@
       <c r="K247" s="8"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -10086,8 +10716,10 @@
       <c r="K248" s="8"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -10120,8 +10752,10 @@
       <c r="K249" s="8"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -10154,8 +10788,10 @@
       <c r="K250" s="8"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -10188,8 +10824,10 @@
       <c r="K251" s="8"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -10222,8 +10860,10 @@
       <c r="K252" s="8"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -10256,8 +10896,10 @@
       <c r="K253" s="8"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -10290,8 +10932,10 @@
       <c r="K254" s="8"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -10324,8 +10968,10 @@
       <c r="K255" s="8"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -10358,8 +11004,10 @@
       <c r="K256" s="8"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" s="2"/>
+      <c r="O256" s="2"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -10392,8 +11040,10 @@
       <c r="K257" s="8"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -10426,8 +11076,10 @@
       <c r="K258" s="8"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -10460,8 +11112,10 @@
       <c r="K259" s="8"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -10494,8 +11148,10 @@
       <c r="K260" s="8"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" s="2"/>
+      <c r="O260" s="2"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -10528,8 +11184,10 @@
       <c r="K261" s="8"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -10562,8 +11220,10 @@
       <c r="K262" s="8"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" s="2"/>
+      <c r="O262" s="2"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -10596,8 +11256,10 @@
       <c r="K263" s="8"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" s="2"/>
+      <c r="O263" s="2"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -10630,8 +11292,10 @@
       <c r="K264" s="8"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" s="2"/>
+      <c r="O264" s="2"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -10664,8 +11328,10 @@
       <c r="K265" s="8"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" s="2"/>
+      <c r="O265" s="2"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -10698,8 +11364,10 @@
       <c r="K266" s="8"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -10732,8 +11400,10 @@
       <c r="K267" s="8"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" s="2"/>
+      <c r="O267" s="2"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -10766,8 +11436,10 @@
       <c r="K268" s="8"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" s="2"/>
+      <c r="O268" s="2"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -10800,8 +11472,10 @@
       <c r="K269" s="8"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" s="2"/>
+      <c r="O269" s="2"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -10834,8 +11508,10 @@
       <c r="K270" s="8"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" s="2"/>
+      <c r="O270" s="2"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -10868,8 +11544,10 @@
       <c r="K271" s="8"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" s="2"/>
+      <c r="O271" s="2"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -10902,8 +11580,10 @@
       <c r="K272" s="8"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" s="2"/>
+      <c r="O272" s="2"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -10936,8 +11616,10 @@
       <c r="K273" s="8"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" s="2"/>
+      <c r="O273" s="2"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -10970,8 +11652,10 @@
       <c r="K274" s="8"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" s="2"/>
+      <c r="O274" s="2"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -11004,8 +11688,10 @@
       <c r="K275" s="8"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" s="2"/>
+      <c r="O275" s="2"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -11038,8 +11724,10 @@
       <c r="K276" s="8"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" s="2"/>
+      <c r="O276" s="2"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -11072,8 +11760,10 @@
       <c r="K277" s="8"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" s="2"/>
+      <c r="O277" s="2"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -11106,8 +11796,10 @@
       <c r="K278" s="8"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" s="2"/>
+      <c r="O278" s="2"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -11140,8 +11832,10 @@
       <c r="K279" s="8"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -11174,8 +11868,10 @@
       <c r="K280" s="8"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" s="2"/>
+      <c r="O280" s="2"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -11208,8 +11904,10 @@
       <c r="K281" s="8"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" s="2"/>
+      <c r="O281" s="2"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -11242,8 +11940,10 @@
       <c r="K282" s="8"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" s="2"/>
+      <c r="O282" s="2"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -11276,8 +11976,10 @@
       <c r="K283" s="8"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" s="2"/>
+      <c r="O283" s="2"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -11310,8 +12012,10 @@
       <c r="K284" s="8"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -11344,8 +12048,10 @@
       <c r="K285" s="8"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" s="2"/>
+      <c r="O285" s="2"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -11378,8 +12084,10 @@
       <c r="K286" s="8"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" s="2"/>
+      <c r="O286" s="2"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -11412,8 +12120,10 @@
       <c r="K287" s="8"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" s="2"/>
+      <c r="O287" s="2"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -11446,8 +12156,10 @@
       <c r="K288" s="8"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" s="2"/>
+      <c r="O288" s="2"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -11480,8 +12192,10 @@
       <c r="K289" s="8"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" s="2"/>
+      <c r="O289" s="2"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -11514,8 +12228,10 @@
       <c r="K290" s="8"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" s="2"/>
+      <c r="O290" s="2"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -11548,8 +12264,10 @@
       <c r="K291" s="8"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" s="2"/>
+      <c r="O291" s="2"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -11582,8 +12300,10 @@
       <c r="K292" s="8"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" s="2"/>
+      <c r="O292" s="2"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -11616,8 +12336,10 @@
       <c r="K293" s="8"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" s="2"/>
+      <c r="O293" s="2"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -11650,8 +12372,10 @@
       <c r="K294" s="8"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" s="2"/>
+      <c r="O294" s="2"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -11684,8 +12408,10 @@
       <c r="K295" s="8"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" s="2"/>
+      <c r="O295" s="2"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -11718,8 +12444,10 @@
       <c r="K296" s="8"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" s="2"/>
+      <c r="O296" s="2"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -11752,8 +12480,10 @@
       <c r="K297" s="8"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" s="2"/>
+      <c r="O297" s="2"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -11786,8 +12516,10 @@
       <c r="K298" s="8"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" s="2"/>
+      <c r="O298" s="2"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -11820,8 +12552,10 @@
       <c r="K299" s="8"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" s="2"/>
+      <c r="O299" s="2"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -11854,8 +12588,10 @@
       <c r="K300" s="8"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" s="2"/>
+      <c r="O300" s="2"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -11888,8 +12624,10 @@
       <c r="K301" s="8"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" s="2"/>
+      <c r="O301" s="2"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -11922,8 +12660,10 @@
       <c r="K302" s="8"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" s="2"/>
+      <c r="O302" s="2"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -11956,8 +12696,10 @@
       <c r="K303" s="8"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" s="2"/>
+      <c r="O303" s="2"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -11990,8 +12732,10 @@
       <c r="K304" s="8"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" s="2"/>
+      <c r="O304" s="2"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -12024,8 +12768,10 @@
       <c r="K305" s="8"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" s="2"/>
+      <c r="O305" s="2"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -12058,8 +12804,10 @@
       <c r="K306" s="8"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -12092,8 +12840,10 @@
       <c r="K307" s="8"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" s="2"/>
+      <c r="O307" s="2"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -12126,8 +12876,10 @@
       <c r="K308" s="8"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" s="2"/>
+      <c r="O308" s="2"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>308</v>
       </c>
@@ -12160,8 +12912,10 @@
       <c r="K309" s="8"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" s="2"/>
+      <c r="O309" s="2"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -12194,8 +12948,10 @@
       <c r="K310" s="8"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" s="2"/>
+      <c r="O310" s="2"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -12228,8 +12984,10 @@
       <c r="K311" s="8"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" s="2"/>
+      <c r="O311" s="2"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -12262,8 +13020,10 @@
       <c r="K312" s="8"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" s="2"/>
+      <c r="O312" s="2"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -12296,8 +13056,10 @@
       <c r="K313" s="8"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" s="2"/>
+      <c r="O313" s="2"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -12330,8 +13092,10 @@
       <c r="K314" s="8"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" s="2"/>
+      <c r="O314" s="2"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -12364,8 +13128,10 @@
       <c r="K315" s="8"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" s="2"/>
+      <c r="O315" s="2"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -12398,8 +13164,10 @@
       <c r="K316" s="8"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" s="2"/>
+      <c r="O316" s="2"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -12432,8 +13200,10 @@
       <c r="K317" s="8"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" s="2"/>
+      <c r="O317" s="2"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -12466,8 +13236,10 @@
       <c r="K318" s="8"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" s="2"/>
+      <c r="O318" s="2"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -12500,8 +13272,10 @@
       <c r="K319" s="8"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" s="2"/>
+      <c r="O319" s="2"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -12534,8 +13308,10 @@
       <c r="K320" s="8"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" s="2"/>
+      <c r="O320" s="2"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -12568,8 +13344,10 @@
       <c r="K321" s="8"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" s="2"/>
+      <c r="O321" s="2"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -12602,8 +13380,10 @@
       <c r="K322" s="8"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" s="2"/>
+      <c r="O322" s="2"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -12636,8 +13416,10 @@
       <c r="K323" s="8"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" s="2"/>
+      <c r="O323" s="2"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -12670,8 +13452,10 @@
       <c r="K324" s="8"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" s="2"/>
+      <c r="O324" s="2"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -12704,8 +13488,10 @@
       <c r="K325" s="8"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" s="2"/>
+      <c r="O325" s="2"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -12738,8 +13524,10 @@
       <c r="K326" s="8"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -12772,8 +13560,10 @@
       <c r="K327" s="8"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" s="2"/>
+      <c r="O327" s="2"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -12806,8 +13596,10 @@
       <c r="K328" s="8"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" s="2"/>
+      <c r="O328" s="2"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>328</v>
       </c>
@@ -12840,8 +13632,10 @@
       <c r="K329" s="8"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" s="2"/>
+      <c r="O329" s="2"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -12874,8 +13668,10 @@
       <c r="K330" s="8"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" s="2"/>
+      <c r="O330" s="2"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -12908,8 +13704,10 @@
       <c r="K331" s="8"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" s="2"/>
+      <c r="O331" s="2"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -12942,8 +13740,10 @@
       <c r="K332" s="8"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" s="2"/>
+      <c r="O332" s="2"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -12976,8 +13776,10 @@
       <c r="K333" s="8"/>
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" s="2"/>
+      <c r="O333" s="2"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -13010,8 +13812,10 @@
       <c r="K334" s="8"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" s="2"/>
+      <c r="O334" s="2"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -13044,8 +13848,10 @@
       <c r="K335" s="8"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" s="2"/>
+      <c r="O335" s="2"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -13078,8 +13884,10 @@
       <c r="K336" s="8"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" s="2"/>
+      <c r="O336" s="2"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -13112,8 +13920,10 @@
       <c r="K337" s="8"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -13146,8 +13956,10 @@
       <c r="K338" s="8"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -13180,8 +13992,10 @@
       <c r="K339" s="8"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" s="2"/>
+      <c r="O339" s="2"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -13214,8 +14028,10 @@
       <c r="K340" s="8"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" s="2"/>
+      <c r="O340" s="2"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -13248,8 +14064,10 @@
       <c r="K341" s="8"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -13282,8 +14100,10 @@
       <c r="K342" s="8"/>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" s="2"/>
+      <c r="O342" s="2"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -13316,8 +14136,10 @@
       <c r="K343" s="8"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" s="2"/>
+      <c r="O343" s="2"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -13350,8 +14172,10 @@
       <c r="K344" s="8"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" s="2"/>
+      <c r="O344" s="2"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -13384,8 +14208,10 @@
       <c r="K345" s="8"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -13418,8 +14244,10 @@
       <c r="K346" s="8"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" s="2"/>
+      <c r="O346" s="2"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -13452,8 +14280,10 @@
       <c r="K347" s="8"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" s="2"/>
+      <c r="O347" s="2"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -13486,8 +14316,10 @@
       <c r="K348" s="8"/>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" s="2"/>
+      <c r="O348" s="2"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -13520,8 +14352,10 @@
       <c r="K349" s="8"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" s="2"/>
+      <c r="O349" s="2"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -13554,8 +14388,10 @@
       <c r="K350" s="8"/>
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" s="2"/>
+      <c r="O350" s="2"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -13588,8 +14424,10 @@
       <c r="K351" s="8"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -13622,8 +14460,10 @@
       <c r="K352" s="8"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" s="2"/>
+      <c r="O352" s="2"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -13656,8 +14496,10 @@
       <c r="K353" s="8"/>
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" s="2"/>
+      <c r="O353" s="2"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -13690,8 +14532,10 @@
       <c r="K354" s="8"/>
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" s="2"/>
+      <c r="O354" s="2"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>354</v>
       </c>
@@ -13724,8 +14568,10 @@
       <c r="K355" s="8"/>
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" s="2"/>
+      <c r="O355" s="2"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -13758,8 +14604,10 @@
       <c r="K356" s="8"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>356</v>
       </c>
@@ -13792,8 +14640,10 @@
       <c r="K357" s="8"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -13826,8 +14676,10 @@
       <c r="K358" s="8"/>
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>358</v>
       </c>
@@ -13860,8 +14712,10 @@
       <c r="K359" s="8"/>
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -13894,8 +14748,10 @@
       <c r="K360" s="8"/>
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N360" s="2"/>
+      <c r="O360" s="2"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -13928,8 +14784,10 @@
       <c r="K361" s="8"/>
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N361" s="2"/>
+      <c r="O361" s="2"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -13962,8 +14820,10 @@
       <c r="K362" s="8"/>
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N362" s="2"/>
+      <c r="O362" s="2"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -13996,8 +14856,10 @@
       <c r="K363" s="8"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" s="2"/>
+      <c r="O363" s="2"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -14030,8 +14892,10 @@
       <c r="K364" s="8"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -14064,8 +14928,10 @@
       <c r="K365" s="8"/>
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -14098,8 +14964,10 @@
       <c r="K366" s="8"/>
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366" s="2"/>
+      <c r="O366" s="2"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -14132,8 +15000,10 @@
       <c r="K367" s="8"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" s="2"/>
+      <c r="O367" s="2"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -14166,8 +15036,10 @@
       <c r="K368" s="8"/>
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368" s="2"/>
+      <c r="O368" s="2"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -14200,8 +15072,10 @@
       <c r="K369" s="8"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -14234,8 +15108,10 @@
       <c r="K370" s="8"/>
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -14268,8 +15144,10 @@
       <c r="K371" s="8"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" s="2"/>
+      <c r="O371" s="2"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -14302,8 +15180,10 @@
       <c r="K372" s="8"/>
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372" s="2"/>
+      <c r="O372" s="2"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>372</v>
       </c>
@@ -14336,8 +15216,10 @@
       <c r="K373" s="8"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -14370,8 +15252,10 @@
       <c r="K374" s="8"/>
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374" s="2"/>
+      <c r="O374" s="2"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>374</v>
       </c>
@@ -14404,8 +15288,10 @@
       <c r="K375" s="8"/>
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -14438,8 +15324,10 @@
       <c r="K376" s="8"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>376</v>
       </c>
@@ -14472,8 +15360,10 @@
       <c r="K377" s="8"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -14506,8 +15396,10 @@
       <c r="K378" s="8"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378" s="2"/>
+      <c r="O378" s="2"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>378</v>
       </c>
@@ -14540,8 +15432,10 @@
       <c r="K379" s="8"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" s="2"/>
+      <c r="O379" s="2"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -14574,8 +15468,10 @@
       <c r="K380" s="8"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380" s="2"/>
+      <c r="O380" s="2"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>380</v>
       </c>
@@ -14608,8 +15504,10 @@
       <c r="K381" s="8"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381" s="2"/>
+      <c r="O381" s="2"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -14642,8 +15540,10 @@
       <c r="K382" s="8"/>
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" s="2"/>
+      <c r="O382" s="2"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>382</v>
       </c>
@@ -14676,8 +15576,10 @@
       <c r="K383" s="8"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -14710,8 +15612,10 @@
       <c r="K384" s="8"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N384" s="2"/>
+      <c r="O384" s="2"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>384</v>
       </c>
@@ -14744,8 +15648,10 @@
       <c r="K385" s="8"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N385" s="2"/>
+      <c r="O385" s="2"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -14778,8 +15684,10 @@
       <c r="K386" s="8"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N386" s="2"/>
+      <c r="O386" s="2"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>386</v>
       </c>
@@ -14812,8 +15720,10 @@
       <c r="K387" s="8"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N387" s="2"/>
+      <c r="O387" s="2"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -14846,8 +15756,10 @@
       <c r="K388" s="8"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N388" s="2"/>
+      <c r="O388" s="2"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>388</v>
       </c>
@@ -14880,8 +15792,10 @@
       <c r="K389" s="8"/>
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -14914,8 +15828,10 @@
       <c r="K390" s="8"/>
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N390" s="2"/>
+      <c r="O390" s="2"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>390</v>
       </c>
@@ -14948,8 +15864,10 @@
       <c r="K391" s="8"/>
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -14982,8 +15900,10 @@
       <c r="K392" s="8"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>392</v>
       </c>
@@ -15016,8 +15936,10 @@
       <c r="K393" s="8"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -15050,8 +15972,10 @@
       <c r="K394" s="8"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N394" s="2"/>
+      <c r="O394" s="2"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>394</v>
       </c>
@@ -15084,8 +16008,10 @@
       <c r="K395" s="8"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N395" s="2"/>
+      <c r="O395" s="2"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -15118,8 +16044,10 @@
       <c r="K396" s="8"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N396" s="2"/>
+      <c r="O396" s="2"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>396</v>
       </c>
@@ -15152,8 +16080,10 @@
       <c r="K397" s="8"/>
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -15186,8 +16116,10 @@
       <c r="K398" s="8"/>
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N398" s="2"/>
+      <c r="O398" s="2"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>398</v>
       </c>
@@ -15220,8 +16152,10 @@
       <c r="K399" s="8"/>
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N399" s="2"/>
+      <c r="O399" s="2"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -15254,8 +16188,10 @@
       <c r="K400" s="8"/>
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N400" s="2"/>
+      <c r="O400" s="2"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>400</v>
       </c>
@@ -15288,8 +16224,10 @@
       <c r="K401" s="8"/>
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N401" s="2"/>
+      <c r="O401" s="2"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -15322,8 +16260,10 @@
       <c r="K402" s="8"/>
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N402" s="2"/>
+      <c r="O402" s="2"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>402</v>
       </c>
@@ -15356,8 +16296,10 @@
       <c r="K403" s="8"/>
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N403" s="2"/>
+      <c r="O403" s="2"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -15390,8 +16332,10 @@
       <c r="K404" s="8"/>
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N404" s="2"/>
+      <c r="O404" s="2"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>404</v>
       </c>
@@ -15424,8 +16368,10 @@
       <c r="K405" s="8"/>
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N405" s="2"/>
+      <c r="O405" s="2"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -15458,8 +16404,10 @@
       <c r="K406" s="8"/>
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N406" s="2"/>
+      <c r="O406" s="2"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>406</v>
       </c>
@@ -15492,8 +16440,10 @@
       <c r="K407" s="8"/>
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N407" s="2"/>
+      <c r="O407" s="2"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -15526,8 +16476,10 @@
       <c r="K408" s="8"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N408" s="2"/>
+      <c r="O408" s="2"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>408</v>
       </c>
@@ -15560,8 +16512,10 @@
       <c r="K409" s="8"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N409" s="2"/>
+      <c r="O409" s="2"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -15594,8 +16548,10 @@
       <c r="K410" s="8"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N410" s="2"/>
+      <c r="O410" s="2"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>410</v>
       </c>
@@ -15628,8 +16584,10 @@
       <c r="K411" s="8"/>
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N411" s="2"/>
+      <c r="O411" s="2"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -15662,8 +16620,10 @@
       <c r="K412" s="8"/>
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N412" s="2"/>
+      <c r="O412" s="2"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>412</v>
       </c>
@@ -15696,8 +16656,10 @@
       <c r="K413" s="8"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N413" s="2"/>
+      <c r="O413" s="2"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -15730,8 +16692,10 @@
       <c r="K414" s="8"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>414</v>
       </c>
@@ -15764,8 +16728,10 @@
       <c r="K415" s="8"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -15798,8 +16764,10 @@
       <c r="K416" s="8"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N416" s="2"/>
+      <c r="O416" s="2"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -15832,8 +16800,10 @@
       <c r="K417" s="8"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -15866,8 +16836,10 @@
       <c r="K418" s="8"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -15900,8 +16872,10 @@
       <c r="K419" s="8"/>
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N419" s="2"/>
+      <c r="O419" s="2"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -15934,8 +16908,10 @@
       <c r="K420" s="8"/>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N420" s="2"/>
+      <c r="O420" s="2"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -15968,8 +16944,10 @@
       <c r="K421" s="8"/>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -16002,8 +16980,10 @@
       <c r="K422" s="8"/>
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N422" s="2"/>
+      <c r="O422" s="2"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -16036,8 +17016,10 @@
       <c r="K423" s="8"/>
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -16070,8 +17052,10 @@
       <c r="K424" s="8"/>
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N424" s="2"/>
+      <c r="O424" s="2"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -16104,8 +17088,10 @@
       <c r="K425" s="8"/>
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -16138,8 +17124,10 @@
       <c r="K426" s="8"/>
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N426" s="2"/>
+      <c r="O426" s="2"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -16172,8 +17160,10 @@
       <c r="K427" s="8"/>
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N427" s="2"/>
+      <c r="O427" s="2"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -16206,8 +17196,10 @@
       <c r="K428" s="8"/>
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N428" s="2"/>
+      <c r="O428" s="2"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -16240,8 +17232,10 @@
       <c r="K429" s="8"/>
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N429" s="2"/>
+      <c r="O429" s="2"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -16274,8 +17268,10 @@
       <c r="K430" s="8"/>
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N430" s="2"/>
+      <c r="O430" s="2"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -16308,8 +17304,10 @@
       <c r="K431" s="8"/>
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N431" s="2"/>
+      <c r="O431" s="2"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -16342,8 +17340,10 @@
       <c r="K432" s="8"/>
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N432" s="2"/>
+      <c r="O432" s="2"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>432</v>
       </c>
@@ -16376,8 +17376,10 @@
       <c r="K433" s="8"/>
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N433" s="2"/>
+      <c r="O433" s="2"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -16410,8 +17412,10 @@
       <c r="K434" s="8"/>
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N434" s="2"/>
+      <c r="O434" s="2"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>434</v>
       </c>
@@ -16444,8 +17448,10 @@
       <c r="K435" s="8"/>
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N435" s="2"/>
+      <c r="O435" s="2"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -16478,8 +17484,10 @@
       <c r="K436" s="8"/>
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N436" s="2"/>
+      <c r="O436" s="2"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>436</v>
       </c>
@@ -16512,8 +17520,10 @@
       <c r="K437" s="8"/>
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N437" s="2"/>
+      <c r="O437" s="2"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -16546,8 +17556,10 @@
       <c r="K438" s="8"/>
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N438" s="2"/>
+      <c r="O438" s="2"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>438</v>
       </c>
@@ -16580,8 +17592,10 @@
       <c r="K439" s="8"/>
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N439" s="2"/>
+      <c r="O439" s="2"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -16614,8 +17628,10 @@
       <c r="K440" s="8"/>
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>440</v>
       </c>
@@ -16648,8 +17664,10 @@
       <c r="K441" s="8"/>
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -16682,8 +17700,10 @@
       <c r="K442" s="8"/>
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N442" s="2"/>
+      <c r="O442" s="2"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>442</v>
       </c>
@@ -16716,8 +17736,10 @@
       <c r="K443" s="8"/>
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N443" s="2"/>
+      <c r="O443" s="2"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -16750,8 +17772,10 @@
       <c r="K444" s="8"/>
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N444" s="2"/>
+      <c r="O444" s="2"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>444</v>
       </c>
@@ -16784,8 +17808,10 @@
       <c r="K445" s="8"/>
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N445" s="2"/>
+      <c r="O445" s="2"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -16818,8 +17844,10 @@
       <c r="K446" s="8"/>
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N446" s="2"/>
+      <c r="O446" s="2"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>446</v>
       </c>
@@ -16852,8 +17880,10 @@
       <c r="K447" s="8"/>
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N447" s="2"/>
+      <c r="O447" s="2"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -16886,8 +17916,10 @@
       <c r="K448" s="8"/>
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N448" s="2"/>
+      <c r="O448" s="2"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -16920,8 +17952,10 @@
       <c r="K449" s="8"/>
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N449" s="2"/>
+      <c r="O449" s="2"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -16954,8 +17988,10 @@
       <c r="K450" s="8"/>
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N450" s="2"/>
+      <c r="O450" s="2"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>450</v>
       </c>
@@ -16988,8 +18024,10 @@
       <c r="K451" s="8"/>
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N451" s="2"/>
+      <c r="O451" s="2"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -17022,8 +18060,10 @@
       <c r="K452" s="8"/>
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N452" s="2"/>
+      <c r="O452" s="2"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>452</v>
       </c>
@@ -17056,8 +18096,10 @@
       <c r="K453" s="8"/>
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N453" s="2"/>
+      <c r="O453" s="2"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -17090,8 +18132,10 @@
       <c r="K454" s="8"/>
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N454" s="2"/>
+      <c r="O454" s="2"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>454</v>
       </c>
@@ -17124,8 +18168,10 @@
       <c r="K455" s="8"/>
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N455" s="2"/>
+      <c r="O455" s="2"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>455</v>
       </c>
@@ -17158,8 +18204,10 @@
       <c r="K456" s="8"/>
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N456" s="2"/>
+      <c r="O456" s="2"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>456</v>
       </c>
@@ -17192,8 +18240,10 @@
       <c r="K457" s="8"/>
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N457" s="2"/>
+      <c r="O457" s="2"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>457</v>
       </c>
@@ -17226,8 +18276,10 @@
       <c r="K458" s="8"/>
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N458" s="2"/>
+      <c r="O458" s="2"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>458</v>
       </c>
@@ -17260,8 +18312,10 @@
       <c r="K459" s="8"/>
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N459" s="2"/>
+      <c r="O459" s="2"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -17294,8 +18348,10 @@
       <c r="K460" s="8"/>
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N460" s="2"/>
+      <c r="O460" s="2"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>460</v>
       </c>
@@ -17328,8 +18384,10 @@
       <c r="K461" s="8"/>
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N461" s="2"/>
+      <c r="O461" s="2"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -17362,8 +18420,10 @@
       <c r="K462" s="8"/>
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N462" s="2"/>
+      <c r="O462" s="2"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>462</v>
       </c>
@@ -17396,8 +18456,10 @@
       <c r="K463" s="8"/>
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N463" s="2"/>
+      <c r="O463" s="2"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>463</v>
       </c>
@@ -17430,8 +18492,10 @@
       <c r="K464" s="8"/>
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N464" s="2"/>
+      <c r="O464" s="2"/>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>464</v>
       </c>
@@ -17464,8 +18528,10 @@
       <c r="K465" s="8"/>
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N465" s="2"/>
+      <c r="O465" s="2"/>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -17498,8 +18564,10 @@
       <c r="K466" s="8"/>
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N466" s="2"/>
+      <c r="O466" s="2"/>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>466</v>
       </c>
@@ -17532,8 +18600,10 @@
       <c r="K467" s="8"/>
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N467" s="2"/>
+      <c r="O467" s="2"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>467</v>
       </c>
@@ -17566,8 +18636,10 @@
       <c r="K468" s="8"/>
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N468" s="2"/>
+      <c r="O468" s="2"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>468</v>
       </c>
@@ -17600,8 +18672,10 @@
       <c r="K469" s="8"/>
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N469" s="2"/>
+      <c r="O469" s="2"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>469</v>
       </c>
@@ -17634,8 +18708,10 @@
       <c r="K470" s="8"/>
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N470" s="2"/>
+      <c r="O470" s="2"/>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>470</v>
       </c>
@@ -17668,8 +18744,10 @@
       <c r="K471" s="8"/>
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N471" s="2"/>
+      <c r="O471" s="2"/>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>471</v>
       </c>
@@ -17702,8 +18780,10 @@
       <c r="K472" s="8"/>
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N472" s="2"/>
+      <c r="O472" s="2"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>472</v>
       </c>
@@ -17736,8 +18816,10 @@
       <c r="K473" s="8"/>
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N473" s="2"/>
+      <c r="O473" s="2"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -17770,8 +18852,10 @@
       <c r="K474" s="8"/>
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N474" s="2"/>
+      <c r="O474" s="2"/>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>474</v>
       </c>
@@ -17804,8 +18888,10 @@
       <c r="K475" s="8"/>
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N475" s="2"/>
+      <c r="O475" s="2"/>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -17838,8 +18924,10 @@
       <c r="K476" s="8"/>
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N476" s="2"/>
+      <c r="O476" s="2"/>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>476</v>
       </c>
@@ -17872,8 +18960,10 @@
       <c r="K477" s="8"/>
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N477" s="2"/>
+      <c r="O477" s="2"/>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -17906,8 +18996,10 @@
       <c r="K478" s="8"/>
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N478" s="2"/>
+      <c r="O478" s="2"/>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>478</v>
       </c>
@@ -17940,8 +19032,10 @@
       <c r="K479" s="8"/>
       <c r="L479" s="2"/>
       <c r="M479" s="2"/>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N479" s="2"/>
+      <c r="O479" s="2"/>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>479</v>
       </c>
@@ -17974,8 +19068,10 @@
       <c r="K480" s="8"/>
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N480" s="2"/>
+      <c r="O480" s="2"/>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>480</v>
       </c>
@@ -18008,8 +19104,10 @@
       <c r="K481" s="8"/>
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N481" s="2"/>
+      <c r="O481" s="2"/>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>481</v>
       </c>
@@ -18042,8 +19140,10 @@
       <c r="K482" s="8"/>
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N482" s="2"/>
+      <c r="O482" s="2"/>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>482</v>
       </c>
@@ -18076,8 +19176,10 @@
       <c r="K483" s="8"/>
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N483" s="2"/>
+      <c r="O483" s="2"/>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>483</v>
       </c>
@@ -18119,8 +19221,10 @@
         <v>1.2807619047619048</v>
       </c>
       <c r="M484" s="2"/>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N484" s="2"/>
+      <c r="O484" s="2"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>484</v>
       </c>
@@ -18162,8 +19266,10 @@
         <v>2.5954285714285716</v>
       </c>
       <c r="M485" s="2"/>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N485" s="2"/>
+      <c r="O485" s="2"/>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>485</v>
       </c>
@@ -18205,8 +19311,10 @@
         <v>3.7669999999999999</v>
       </c>
       <c r="M486" s="2"/>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N486" s="2"/>
+      <c r="O486" s="2"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>486</v>
       </c>
@@ -18248,8 +19356,10 @@
         <v>5.0150476190476203</v>
       </c>
       <c r="M487" s="2"/>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N487" s="2"/>
+      <c r="O487" s="2"/>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>487</v>
       </c>
@@ -18291,8 +19401,10 @@
         <v>6.1230952380952379</v>
       </c>
       <c r="M488" s="2"/>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N488" s="2"/>
+      <c r="O488" s="2"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>488</v>
       </c>
@@ -18334,8 +19446,10 @@
         <v>7.3617142857142861</v>
       </c>
       <c r="M489" s="2"/>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N489" s="2"/>
+      <c r="O489" s="2"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>489</v>
       </c>
@@ -18377,8 +19491,10 @@
         <v>8.5906666666666673</v>
       </c>
       <c r="M490" s="2"/>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N490" s="2"/>
+      <c r="O490" s="2"/>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>490</v>
       </c>
@@ -18420,8 +19536,10 @@
         <v>9.8670476190476197</v>
       </c>
       <c r="M491" s="2"/>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N491" s="2"/>
+      <c r="O491" s="2"/>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>491</v>
       </c>
@@ -18463,8 +19581,10 @@
         <v>11.097</v>
       </c>
       <c r="M492" s="2"/>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N492" s="2"/>
+      <c r="O492" s="2"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>492</v>
       </c>
@@ -18506,8 +19626,10 @@
         <v>12.102380952380951</v>
       </c>
       <c r="M493" s="2"/>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N493" s="2"/>
+      <c r="O493" s="2"/>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>493</v>
       </c>
@@ -18549,8 +19671,10 @@
         <v>13.051238095238096</v>
       </c>
       <c r="M494" s="2"/>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N494" s="2"/>
+      <c r="O494" s="2"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>494</v>
       </c>
@@ -18592,8 +19716,10 @@
         <v>14.222285714285713</v>
       </c>
       <c r="M495" s="2"/>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N495" s="2"/>
+      <c r="O495" s="2"/>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>495</v>
       </c>
@@ -18635,8 +19761,10 @@
         <v>15.176571428571428</v>
       </c>
       <c r="M496" s="2"/>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N496" s="2"/>
+      <c r="O496" s="2"/>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>496</v>
       </c>
@@ -18678,8 +19806,10 @@
         <v>16.077999999999999</v>
       </c>
       <c r="M497" s="2"/>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N497" s="2"/>
+      <c r="O497" s="2"/>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>497</v>
       </c>
@@ -18721,8 +19851,10 @@
         <v>16.873571428571427</v>
       </c>
       <c r="M498" s="2"/>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N498" s="2"/>
+      <c r="O498" s="2"/>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>498</v>
       </c>
@@ -18764,8 +19896,10 @@
         <v>17.52304761904762</v>
       </c>
       <c r="M499" s="2"/>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N499" s="2"/>
+      <c r="O499" s="2"/>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -18807,8 +19941,10 @@
         <v>19.558904761904763</v>
       </c>
       <c r="M500" s="2"/>
-    </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N500" s="2"/>
+      <c r="O500" s="2"/>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>500</v>
       </c>
@@ -18850,8 +19986,10 @@
         <v>20.868000000000002</v>
       </c>
       <c r="M501" s="2"/>
-    </row>
-    <row r="502" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N501" s="2"/>
+      <c r="O501" s="2"/>
+    </row>
+    <row r="502" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="8">
         <v>501</v>
       </c>
@@ -18893,8 +20031,10 @@
         <v>21.999285714285715</v>
       </c>
       <c r="M502" s="2"/>
-    </row>
-    <row r="503" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N502" s="2"/>
+      <c r="O502" s="2"/>
+    </row>
+    <row r="503" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>502</v>
       </c>
@@ -18935,16 +20075,25 @@
         <f>testdata[[#This Row],[close]]*testdata[[#This Row],[weight]]</f>
         <v>23.36</v>
       </c>
-      <c r="M503" s="13">
+      <c r="M503" s="12">
         <f>SUM(L484:L503)</f>
         <v>246.51104761904764</v>
+      </c>
+      <c r="N503" s="12">
+        <f>testdata[[#This Row],[wma]]+0.025*testdata[[#This Row],[wma]]</f>
+        <v>252.67382380952384</v>
+      </c>
+      <c r="O503" s="12">
+        <f>testdata[[#This Row],[wma]]-0.025*testdata[[#This Row],[wma]]</f>
+        <v>240.34827142857145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>